--- a/data/2/20230608-a1r-nc-session2-n_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-n_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
